--- a/data/input/template_calib_HG_10YR.xlsx
+++ b/data/input/template_calib_HG_10YR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18915" windowHeight="12330" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18915" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="initHG" sheetId="1" r:id="rId1"/>
@@ -2272,25 +2272,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="118557312"/>
-        <c:axId val="118571392"/>
-        <c:axId val="118089472"/>
+        <c:axId val="131144320"/>
+        <c:axId val="131151360"/>
+        <c:axId val="130792512"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="118557312"/>
+        <c:axId val="131144320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118571392"/>
+        <c:crossAx val="131151360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118571392"/>
+        <c:axId val="131151360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,29 +2298,30 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118557312"/>
+        <c:crossAx val="131144320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="118089472"/>
+        <c:axId val="130792512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118571392"/>
+        <c:crossAx val="131151360"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3798,25 +3799,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="118682368"/>
-        <c:axId val="118683904"/>
-        <c:axId val="118669760"/>
+        <c:axId val="151379328"/>
+        <c:axId val="151401600"/>
+        <c:axId val="131171648"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="118682368"/>
+        <c:axId val="151379328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118683904"/>
+        <c:crossAx val="151401600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118683904"/>
+        <c:axId val="151401600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,29 +3825,30 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118682368"/>
+        <c:crossAx val="151379328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="118669760"/>
+        <c:axId val="131171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118683904"/>
+        <c:crossAx val="151401600"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5324,25 +5326,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="118835840"/>
-        <c:axId val="118845824"/>
-        <c:axId val="118832192"/>
+        <c:axId val="152159360"/>
+        <c:axId val="152160896"/>
+        <c:axId val="149861248"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="118835840"/>
+        <c:axId val="152159360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118845824"/>
+        <c:crossAx val="152160896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118845824"/>
+        <c:axId val="152160896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5350,29 +5352,30 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118835840"/>
+        <c:crossAx val="152159360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="118832192"/>
+        <c:axId val="149861248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118845824"/>
+        <c:crossAx val="152160896"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6851,25 +6854,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128393984"/>
-        <c:axId val="128395520"/>
-        <c:axId val="128385024"/>
+        <c:axId val="172935808"/>
+        <c:axId val="172945792"/>
+        <c:axId val="151465024"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="128393984"/>
+        <c:axId val="172935808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128395520"/>
+        <c:crossAx val="172945792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128395520"/>
+        <c:axId val="172945792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6877,29 +6880,30 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128393984"/>
+        <c:crossAx val="172935808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="128385024"/>
+        <c:axId val="151465024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128395520"/>
+        <c:crossAx val="172945792"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8378,25 +8382,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128542976"/>
-        <c:axId val="128544768"/>
-        <c:axId val="128506496"/>
+        <c:axId val="148984576"/>
+        <c:axId val="148986112"/>
+        <c:axId val="152072192"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="128542976"/>
+        <c:axId val="148984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128544768"/>
+        <c:crossAx val="148986112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128544768"/>
+        <c:axId val="148986112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8404,18 +8408,18 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128542976"/>
+        <c:crossAx val="148984576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="128506496"/>
+        <c:axId val="152072192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128544768"/>
+        <c:crossAx val="148986112"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -8427,7 +8431,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8895,7 +8899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -11724,7 +11728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
@@ -13110,7 +13114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -15883,7 +15887,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16003,7 +16007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
